--- a/Escuelas.xlsx
+++ b/Escuelas.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shary\Documents\SQLITE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13897" windowHeight="4021" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$O$139</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$N$1:$N$243</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="471">
   <si>
     <t>KILOMETRO 1.5 A VALLADOLID</t>
   </si>
@@ -1440,6 +1435,9 @@
   </si>
   <si>
     <t>n9</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/centrodeestudios.debachillerato</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1518,6 +1516,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1793,7 +1794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1807,22 +1808,22 @@
       <selection activeCell="E1" sqref="E1:O243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="11" style="9"/>
-    <col min="13" max="13" width="11.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="32" width="11" style="9"/>
     <col min="33" max="44" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>1</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>5</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>8</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>9</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>21</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>22</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>28</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>29</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>31</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>32</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>33</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>34</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>35</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>36</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>37</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>38</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>39</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>40</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>41</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>42</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>44</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>46</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>47</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>48</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>49</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>50</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>51</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>52</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>53</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>54</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>55</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>56</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>57</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>58</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>59</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>60</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>61</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>62</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>63</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>64</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>65</v>
       </c>
@@ -4877,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>66</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>67</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>68</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>69</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>70</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>71</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>72</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>73</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>74</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>75</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>76</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>77</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>78</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>79</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>80</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>81</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>82</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>83</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>84</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>85</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>86</v>
       </c>
@@ -5864,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>87</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>88</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>89</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>90</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>91</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>92</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>93</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>94</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>95</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>96</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>97</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>98</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>99</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>100</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>101</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>102</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>103</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>104</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>105</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>106</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>107</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>108</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>109</v>
       </c>
@@ -6945,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>110</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>111</v>
       </c>
@@ -7039,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>112</v>
       </c>
@@ -7086,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>113</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>114</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>115</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>116</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>117</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>118</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>119</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>120</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>121</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>122</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>123</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>124</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>125</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>126</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>127</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>128</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>129</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>130</v>
       </c>
@@ -7932,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>131</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>132</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>133</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>134</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>135</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>136</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>137</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>138</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>139</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>140</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>141</v>
       </c>
@@ -8449,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>142</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>143</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>144</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>145</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>146</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>147</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>148</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>149</v>
       </c>
@@ -8825,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>150</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>151</v>
       </c>
@@ -8919,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>152</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>153</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>154</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>155</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>156</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>157</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>158</v>
       </c>
@@ -9248,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>159</v>
       </c>
@@ -9295,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>160</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>161</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>162</v>
       </c>
@@ -9436,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>163</v>
       </c>
@@ -9483,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>164</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>165</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>166</v>
       </c>
@@ -9624,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>167</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>168</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>169</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>170</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>171</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>172</v>
       </c>
@@ -9906,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>173</v>
       </c>
@@ -9953,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>174</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>175</v>
       </c>
@@ -10047,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>176</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>177</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>178</v>
       </c>
@@ -10188,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>179</v>
       </c>
@@ -10235,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>180</v>
       </c>
@@ -10282,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>181</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>182</v>
       </c>
@@ -10376,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>183</v>
       </c>
@@ -10423,7 +10424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>184</v>
       </c>
@@ -10470,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>185</v>
       </c>
@@ -10517,7 +10518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>186</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>187</v>
       </c>
@@ -10611,7 +10612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>188</v>
       </c>
@@ -10658,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>189</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>190</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>191</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>192</v>
       </c>
@@ -10846,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>193</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>194</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>195</v>
       </c>
@@ -10987,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>196</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>197</v>
       </c>
@@ -11081,7 +11082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>198</v>
       </c>
@@ -11128,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>199</v>
       </c>
@@ -11175,7 +11176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>200</v>
       </c>
@@ -11222,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>201</v>
       </c>
@@ -11269,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>202</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>203</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>204</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>205</v>
       </c>
@@ -11457,7 +11458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>206</v>
       </c>
@@ -11504,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>207</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>208</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>209</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>210</v>
       </c>
@@ -11692,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>211</v>
       </c>
@@ -11739,7 +11740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>212</v>
       </c>
@@ -11786,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>213</v>
       </c>
@@ -11833,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>214</v>
       </c>
@@ -11880,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>215</v>
       </c>
@@ -11927,7 +11928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>216</v>
       </c>
@@ -11974,7 +11975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>217</v>
       </c>
@@ -12021,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>218</v>
       </c>
@@ -12068,7 +12069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>219</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>220</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>221</v>
       </c>
@@ -12209,7 +12210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>222</v>
       </c>
@@ -12256,7 +12257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>223</v>
       </c>
@@ -12303,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>224</v>
       </c>
@@ -12350,7 +12351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>225</v>
       </c>
@@ -12397,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>226</v>
       </c>
@@ -12444,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>227</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>228</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>229</v>
       </c>
@@ -12585,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>230</v>
       </c>
@@ -12632,7 +12633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>231</v>
       </c>
@@ -12679,7 +12680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>232</v>
       </c>
@@ -12726,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>233</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>234</v>
       </c>
@@ -12820,7 +12821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>235</v>
       </c>
@@ -12867,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>236</v>
       </c>
@@ -12914,7 +12915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>237</v>
       </c>
@@ -12961,7 +12962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>238</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>239</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>240</v>
       </c>
@@ -13102,7 +13103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>241</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>242</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>243</v>
       </c>
@@ -13243,7 +13244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -13266,15 +13267,15 @@
       <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
     <col min="5" max="14" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>105</v>
       </c>
@@ -13321,7 +13322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>106</v>
       </c>
@@ -13368,7 +13369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>108</v>
       </c>
@@ -13415,7 +13416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>109</v>
       </c>
@@ -13462,7 +13463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>110</v>
       </c>
@@ -13509,7 +13510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>111</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>113</v>
       </c>
@@ -13603,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>116</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>118</v>
       </c>
@@ -13697,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>119</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>121</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>123</v>
       </c>
@@ -13838,7 +13839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>125</v>
       </c>
@@ -13885,7 +13886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>127</v>
       </c>
@@ -13932,7 +13933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>129</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>131</v>
       </c>
@@ -14024,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>133</v>
       </c>
@@ -14071,7 +14072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>135</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>136</v>
       </c>
@@ -14165,7 +14166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>137</v>
       </c>
@@ -14212,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>140</v>
       </c>
@@ -14259,7 +14260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>141</v>
       </c>
@@ -14306,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>143</v>
       </c>
@@ -14398,7 +14399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>148</v>
       </c>
@@ -14445,7 +14446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>150</v>
       </c>
@@ -14492,7 +14493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>152</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>154</v>
       </c>
@@ -14680,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>159</v>
       </c>
@@ -14774,7 +14775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>163</v>
       </c>
@@ -14821,7 +14822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>165</v>
       </c>
@@ -14868,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>167</v>
       </c>
@@ -15005,7 +15006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>172</v>
       </c>
@@ -15052,7 +15053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>174</v>
       </c>
@@ -15097,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>176</v>
       </c>
@@ -15142,7 +15143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>177</v>
       </c>
@@ -15187,7 +15188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>179</v>
       </c>
@@ -15232,7 +15233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>181</v>
       </c>
@@ -15367,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>186</v>
       </c>
@@ -15412,7 +15413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>188</v>
       </c>
@@ -15596,7 +15597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>192</v>
       </c>
@@ -15688,7 +15689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>194</v>
       </c>
@@ -15780,7 +15781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>196</v>
       </c>
@@ -16097,7 +16098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>205</v>
       </c>
@@ -16232,7 +16233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>212</v>
       </c>
@@ -16277,7 +16278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>213</v>
       </c>
@@ -16322,7 +16323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>214</v>
       </c>
@@ -16367,7 +16368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>215</v>
       </c>
@@ -16414,7 +16415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>217</v>
       </c>
@@ -16461,7 +16462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>219</v>
       </c>
@@ -16508,7 +16509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>221</v>
       </c>
@@ -16555,7 +16556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>222</v>
       </c>
@@ -16602,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>224</v>
       </c>
@@ -16647,7 +16648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>227</v>
       </c>
@@ -16694,7 +16695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>229</v>
       </c>
@@ -16739,7 +16740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>233</v>
       </c>
@@ -16786,7 +16787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>235</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>237</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>238</v>
       </c>
@@ -16927,7 +16928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>240</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>241</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>243</v>
       </c>
@@ -17068,7 +17069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>244</v>
       </c>
@@ -17115,7 +17116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>245</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>246</v>
       </c>
@@ -17209,7 +17210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>247</v>
       </c>
@@ -17256,7 +17257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>248</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>249</v>
       </c>
@@ -17350,7 +17351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>250</v>
       </c>
@@ -17397,7 +17398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>251</v>
       </c>
@@ -17444,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>252</v>
       </c>
@@ -17491,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>253</v>
       </c>
@@ -17536,7 +17537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>254</v>
       </c>
@@ -17581,7 +17582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>255</v>
       </c>
@@ -17626,7 +17627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>256</v>
       </c>
@@ -17673,7 +17674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>257</v>
       </c>
@@ -17720,7 +17721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>258</v>
       </c>
@@ -17767,7 +17768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>259</v>
       </c>
@@ -17814,7 +17815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>260</v>
       </c>
@@ -17861,7 +17862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>261</v>
       </c>
@@ -17908,7 +17909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>262</v>
       </c>
@@ -17955,7 +17956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>263</v>
       </c>
@@ -18002,7 +18003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>264</v>
       </c>
@@ -18049,7 +18050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>265</v>
       </c>
@@ -18096,7 +18097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>266</v>
       </c>
@@ -18143,7 +18144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>267</v>
       </c>
@@ -18190,7 +18191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>268</v>
       </c>
@@ -18237,7 +18238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>269</v>
       </c>
@@ -18284,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>270</v>
       </c>
@@ -18331,7 +18332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>271</v>
       </c>
@@ -18378,7 +18379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>272</v>
       </c>
@@ -18425,7 +18426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>273</v>
       </c>
@@ -18472,7 +18473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>274</v>
       </c>
@@ -18519,7 +18520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>275</v>
       </c>
@@ -18566,7 +18567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>277</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>278</v>
       </c>
@@ -18660,7 +18661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>279</v>
       </c>
@@ -18707,7 +18708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>280</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>281</v>
       </c>
@@ -18801,7 +18802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>282</v>
       </c>
@@ -18848,7 +18849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>283</v>
       </c>
@@ -18895,7 +18896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>284</v>
       </c>
@@ -18942,7 +18943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>285</v>
       </c>
@@ -18989,7 +18990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>286</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>287</v>
       </c>
@@ -19083,7 +19084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>288</v>
       </c>
@@ -19130,7 +19131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>289</v>
       </c>
@@ -19177,7 +19178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>290</v>
       </c>
@@ -19224,7 +19225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>291</v>
       </c>
@@ -19271,7 +19272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>292</v>
       </c>
@@ -19318,7 +19319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>293</v>
       </c>
@@ -19365,7 +19366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>294</v>
       </c>
@@ -19412,7 +19413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>295</v>
       </c>
@@ -19459,7 +19460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>296</v>
       </c>
@@ -19506,7 +19507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>298</v>
       </c>
@@ -19553,7 +19554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>299</v>
       </c>
@@ -19600,7 +19601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>300</v>
       </c>
@@ -19647,7 +19648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>301</v>
       </c>
@@ -19694,7 +19695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>302</v>
       </c>
@@ -19753,15 +19754,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -19855,7 +19858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19996,7 +19999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20043,7 +20046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20090,7 +20093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20137,7 +20140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20184,7 +20187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20231,7 +20234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20278,7 +20281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20325,7 +20328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20372,7 +20375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20419,7 +20422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20748,7 +20751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -20889,7 +20892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20983,7 +20986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -21030,7 +21033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -21077,7 +21080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -21124,7 +21127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -21171,7 +21174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -21218,7 +21221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -21265,7 +21268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -21312,7 +21315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -21359,7 +21362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -21406,7 +21409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -21453,7 +21456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -21500,7 +21503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -21547,7 +21550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -21594,7 +21597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -21735,7 +21738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -21782,7 +21785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -21829,7 +21832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -21876,7 +21879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -21923,7 +21926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -21970,7 +21973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -22017,7 +22020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -22111,7 +22114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -22158,7 +22161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -22205,7 +22208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -22252,7 +22255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -22299,7 +22302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -22346,7 +22349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -22393,7 +22396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -22440,7 +22443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -22487,7 +22490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -22534,7 +22537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -22581,7 +22584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -22628,7 +22631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -22675,7 +22678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -22722,7 +22725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -22769,7 +22772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -22816,7 +22819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -22863,7 +22866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -22910,7 +22913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -22957,7 +22960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -23004,7 +23007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -23051,7 +23054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -23098,7 +23101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -23192,7 +23195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -23239,7 +23242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -23286,7 +23289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -23333,7 +23336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -23380,7 +23383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -23427,7 +23430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -23474,7 +23477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -23521,7 +23524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -23568,7 +23571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -23615,7 +23618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -23662,7 +23665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -23709,7 +23712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -23756,7 +23759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -23803,7 +23806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -23850,7 +23853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -23897,7 +23900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -23944,7 +23947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -23991,7 +23994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -24038,7 +24041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -24085,7 +24088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -24132,7 +24135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -24649,7 +24652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -24724,8 +24727,8 @@
       <c r="I106" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J106" s="9" t="s">
-        <v>156</v>
+      <c r="J106" s="11" t="s">
+        <v>470</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>156</v>
@@ -24790,7 +24793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -24837,7 +24840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -24884,7 +24887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -24931,7 +24934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -24978,7 +24981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -25025,7 +25028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -25072,7 +25075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -25119,7 +25122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -25166,7 +25169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -25213,7 +25216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -25401,7 +25404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -25448,7 +25451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -26106,7 +26109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -26858,7 +26861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -27845,7 +27848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -27986,7 +27989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -28127,7 +28130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -28221,7 +28224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -28268,7 +28271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -28315,7 +28318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -28362,7 +28365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -28456,7 +28459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -28597,7 +28600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -28644,7 +28647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -29067,7 +29070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -29161,7 +29164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -29302,7 +29305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -29443,7 +29446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -29490,7 +29493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -29537,7 +29540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -29584,7 +29587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -29678,7 +29681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -29725,7 +29728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -29772,7 +29775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -29819,7 +29822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -29866,7 +29869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -29913,7 +29916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -30101,7 +30104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -30148,7 +30151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -30195,7 +30198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -30242,7 +30245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -30383,7 +30386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -30618,7 +30621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -30712,7 +30715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -30759,7 +30762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -30853,7 +30856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -30947,7 +30950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -31183,7 +31186,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J106" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="10" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="10" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Escuelas.xlsx
+++ b/Escuelas.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shary\Documents\SQLITE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shary\Documents\GitHub\nu-uk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13897" windowHeight="4021" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13897" windowHeight="4021" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Carreras0" sheetId="6" r:id="rId4"/>
+    <sheet name="Carreras1" sheetId="4" r:id="rId5"/>
+    <sheet name="Relacion_Escuela0" sheetId="7" r:id="rId6"/>
+    <sheet name="Relacion_Escuela1" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$O$139</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$N$1:$N$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$O$243</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="475">
   <si>
     <t>KILOMETRO 1.5 A VALLADOLID</t>
   </si>
@@ -1440,6 +1444,21 @@
   </si>
   <si>
     <t>n9</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>TIPOCARRERA</t>
+  </si>
+  <si>
+    <t>IdEscuela</t>
+  </si>
+  <si>
+    <t>IdCarrera</t>
   </si>
 </sst>
 </file>
@@ -19751,9 +19770,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24696,7 +24718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -24743,7 +24765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -24790,7 +24812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -24837,7 +24859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -24884,7 +24906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -24931,7 +24953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -24978,7 +25000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -25025,7 +25047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -25072,7 +25094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -25119,7 +25141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -25166,7 +25188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -25213,7 +25235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -25260,7 +25282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -25307,7 +25329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -25354,7 +25376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -25401,7 +25423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -25448,7 +25470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -25495,7 +25517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -25542,7 +25564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -25589,7 +25611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -25636,7 +25658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -25683,7 +25705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -25730,7 +25752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -25777,7 +25799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -25824,7 +25846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -25871,7 +25893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -25918,7 +25940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -25965,7 +25987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -26012,7 +26034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -26059,7 +26081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -26106,7 +26128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -26153,7 +26175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -26200,7 +26222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -26247,7 +26269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -26294,7 +26316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -26341,7 +26363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -26388,7 +26410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -26435,7 +26457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -26482,7 +26504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -26529,7 +26551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -26576,7 +26598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -26623,7 +26645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -26670,7 +26692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -26717,7 +26739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -26764,7 +26786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -26811,7 +26833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -26858,7 +26880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -26905,7 +26927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -26952,7 +26974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -26999,7 +27021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -27046,7 +27068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -27093,7 +27115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -27140,7 +27162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -27187,7 +27209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -27234,7 +27256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -27281,7 +27303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -27328,7 +27350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -27375,7 +27397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -27422,7 +27444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -27469,7 +27491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -27516,7 +27538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -27563,7 +27585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -27610,7 +27632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -27657,7 +27679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -27704,7 +27726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -27751,7 +27773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -27798,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -27845,7 +27867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -27892,7 +27914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -27939,7 +27961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -27986,7 +28008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="57.1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -28033,7 +28055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -28080,7 +28102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -28127,7 +28149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -28174,7 +28196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -28221,7 +28243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -28268,7 +28290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -28315,7 +28337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -28362,7 +28384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -28409,7 +28431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -28456,7 +28478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -28503,7 +28525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -28550,7 +28572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -28597,7 +28619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -28644,7 +28666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -28691,7 +28713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -28738,7 +28760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -28785,7 +28807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -28832,7 +28854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -28879,7 +28901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -28926,7 +28948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -28973,7 +28995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -29020,7 +29042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -29067,7 +29089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -29114,7 +29136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -29161,7 +29183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -29208,7 +29230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -29255,7 +29277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -29302,7 +29324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -29349,7 +29371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -29396,7 +29418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -29443,7 +29465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -29490,7 +29512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -29537,7 +29559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -29584,7 +29606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -29631,7 +29653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -29678,7 +29700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -29725,7 +29747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -29772,7 +29794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="57.1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -29819,7 +29841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -29866,7 +29888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -29913,7 +29935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -29960,7 +29982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -30007,7 +30029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -30054,7 +30076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -30101,7 +30123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -30148,7 +30170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -30195,7 +30217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -30242,7 +30264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -30289,7 +30311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -30336,7 +30358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -30383,7 +30405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -30430,7 +30452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -30477,7 +30499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -30524,7 +30546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -30571,7 +30593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -30618,7 +30640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -30665,7 +30687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -30712,7 +30734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -30759,7 +30781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -30806,7 +30828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -30853,7 +30875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -30900,7 +30922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -30947,7 +30969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -30994,7 +31016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -31041,7 +31063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -31088,7 +31110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -31135,7 +31157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -31183,7 +31205,121 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O243">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="10" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Escuelas.xlsx
+++ b/Escuelas.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Especialidades" sheetId="4" r:id="rId4"/>
+    <sheet name="RELACION_ESP_PREPA" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$O$139</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="533">
   <si>
     <t>KILOMETRO 1.5 A VALLADOLID</t>
   </si>
@@ -1437,7 +1439,193 @@
     <t>n9</t>
   </si>
   <si>
-    <t>https://www.facebook.com/centrodeestudios.debachillerato</t>
+    <t>https://www.facebook.com/pages/Centro-de-Estudios-Tecnologicos-del-Mar-33-cetmar-Cozumel-QRoo/1515594528686916</t>
+  </si>
+  <si>
+    <t>/centrodeestudios.debachillerato</t>
+  </si>
+  <si>
+    <t>pages/Centro-de-Estudios-Tecnologicos-del-Mar-33-cetmar-Cozumel-QRoo/1515594528686916</t>
+  </si>
+  <si>
+    <t>http://www.cbtis214.edu.mx/portal/index.html</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>carrera</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DE RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD</t>
+  </si>
+  <si>
+    <t>DISEÑO GRÁFICO DIGITAL</t>
+  </si>
+  <si>
+    <t>LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>http://www.cbtis28.mx/</t>
+  </si>
+  <si>
+    <t>TURISMO</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>SERVICIOS DE HOSPEDAJE</t>
+  </si>
+  <si>
+    <t>PREPARACIÓN DE ALIMENTOS Y BEBIDAS</t>
+  </si>
+  <si>
+    <t>SOPORTE Y MANTENIMIENTO DE EQUIPOS DE CÓMPUTO</t>
+  </si>
+  <si>
+    <t>/cbtis28josevasconcelos</t>
+  </si>
+  <si>
+    <t>@Cbtis28</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID-CARRERA</t>
+  </si>
+  <si>
+    <t>ID-ESCUELA</t>
+  </si>
+  <si>
+    <t>http://cbtis72.edu.mx/</t>
+  </si>
+  <si>
+    <t>/CBTis72</t>
+  </si>
+  <si>
+    <t>@CBTis72</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/Cbtis-253/167486019954628</t>
+  </si>
+  <si>
+    <t>pages/Cbtis-253/167486019954628</t>
+  </si>
+  <si>
+    <t>@Cbtis253</t>
+  </si>
+  <si>
+    <t>@cbtis_272</t>
+  </si>
+  <si>
+    <t>/pages/CBTIS-272-Escolares/162129853941828?fref=ts</t>
+  </si>
+  <si>
+    <t>http://www.cbtis272.com/</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>http://cbtis111.edu.mx/</t>
+  </si>
+  <si>
+    <t>/Cbtis111Oficial</t>
+  </si>
+  <si>
+    <t>@CbtisNo111</t>
+  </si>
+  <si>
+    <t>http://sescolarescancun.jimdo.com/</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO GENERAL</t>
+  </si>
+  <si>
+    <t>ENFERMERIA GENERAL</t>
+  </si>
+  <si>
+    <t>/pages/Conalep-Cancun-I-Promoción-y-Vinculación/277632682294202?fref=ts</t>
+  </si>
+  <si>
+    <t>@CONALEP_Cancun2</t>
+  </si>
+  <si>
+    <t>/conalep298</t>
+  </si>
+  <si>
+    <t>/ConalepCancunII</t>
+  </si>
+  <si>
+    <t>ASISTENTE DIRECTIVO</t>
+  </si>
+  <si>
+    <t>@conalepcoz</t>
+  </si>
+  <si>
+    <t>http://www.conalep-cozumel.edu.mx/</t>
+  </si>
+  <si>
+    <t>http://www.conalepfcp.edu.mx/</t>
+  </si>
+  <si>
+    <t>HOSPITALIDAD TURÍSTICA</t>
+  </si>
+  <si>
+    <t>@ConalepFCP</t>
+  </si>
+  <si>
+    <t>/conalepfcp.quintanaroo</t>
+  </si>
+  <si>
+    <t>http://conalepchetumal.blogspot.mx/</t>
+  </si>
+  <si>
+    <t>/conalepchetumal</t>
+  </si>
+  <si>
+    <t>@conachetumal</t>
+  </si>
+  <si>
+    <t>MOTORES A DIESEL</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN</t>
+  </si>
+  <si>
+    <t>http://www.conalepcancun2.edu.mx/</t>
+  </si>
+  <si>
+    <t>conalepcancundos@gmail.com</t>
+  </si>
+  <si>
+    <t>http://conalepcancun3.jimdo.com/</t>
+  </si>
+  <si>
+    <t>@Conalep298</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO DE  MOTORES Y PLANEADORES</t>
+  </si>
+  <si>
+    <t>MECATRÓNICA</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1982,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19754,13 +19942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView topLeftCell="C115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24728,7 +24916,7 @@
         <v>156</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>156</v>
@@ -24863,13 +25051,13 @@
         <v>156</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>156</v>
+        <v>470</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>399</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>156</v>
+        <v>472</v>
       </c>
       <c r="K109" s="9" t="s">
         <v>156</v>
@@ -24910,7 +25098,7 @@
         <v>8322177</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="I110" s="8" t="s">
         <v>400</v>
@@ -24957,16 +25145,16 @@
         <v>8720039</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>156</v>
+        <v>483</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>401</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>156</v>
+        <v>490</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>93</v>
@@ -25004,16 +25192,16 @@
         <v>8340270</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>156</v>
+        <v>494</v>
       </c>
       <c r="I112" s="8" t="s">
         <v>402</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>156</v>
+        <v>495</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>156</v>
+        <v>496</v>
       </c>
       <c r="L112" s="8" t="s">
         <v>93</v>
@@ -25051,16 +25239,16 @@
         <v>8328736</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>156</v>
+        <v>498</v>
       </c>
       <c r="I113" s="8" t="s">
         <v>403</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>156</v>
+        <v>499</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>156</v>
+        <v>500</v>
       </c>
       <c r="L113" s="8" t="s">
         <v>93</v>
@@ -25098,16 +25286,16 @@
         <v>38323800</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>156</v>
+        <v>503</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>404</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>156</v>
+        <v>502</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>156</v>
+        <v>501</v>
       </c>
       <c r="L114" s="8" t="s">
         <v>93</v>
@@ -25145,16 +25333,16 @@
         <v>8846198</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>156</v>
+        <v>505</v>
       </c>
       <c r="I115" s="8" t="s">
         <v>405</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>156</v>
+        <v>506</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>156</v>
+        <v>507</v>
       </c>
       <c r="L115" s="8" t="s">
         <v>93</v>
@@ -25192,13 +25380,13 @@
         <v>8844298</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>156</v>
+        <v>508</v>
       </c>
       <c r="I116" s="8" t="s">
         <v>406</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>156</v>
+        <v>511</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>156</v>
@@ -25239,7 +25427,7 @@
         <v>8724882</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>156</v>
+        <v>517</v>
       </c>
       <c r="I117" s="8" t="s">
         <v>407</v>
@@ -25248,7 +25436,7 @@
         <v>156</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>156</v>
+        <v>516</v>
       </c>
       <c r="L117" s="8" t="s">
         <v>93</v>
@@ -25286,16 +25474,16 @@
         <v>8340217</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>156</v>
+        <v>518</v>
       </c>
       <c r="I118" s="8" t="s">
         <v>156</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>156</v>
+        <v>521</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="L118" s="8" t="s">
         <v>93</v>
@@ -25310,7 +25498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -25333,16 +25521,16 @@
         <v>8372663</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>156</v>
+        <v>522</v>
       </c>
       <c r="I119" s="8" t="s">
         <v>156</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>156</v>
+        <v>523</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>156</v>
+        <v>524</v>
       </c>
       <c r="L119" s="8" t="s">
         <v>93</v>
@@ -25357,7 +25545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -25380,16 +25568,16 @@
         <v>156</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>156</v>
+        <v>527</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>156</v>
+        <v>528</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>156</v>
+        <v>514</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>156</v>
+        <v>512</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>93</v>
@@ -25427,16 +25615,16 @@
         <v>1293273</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>156</v>
+        <v>529</v>
       </c>
       <c r="I121" s="8" t="s">
         <v>408</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>156</v>
+        <v>513</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>156</v>
+        <v>530</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>93</v>
@@ -31187,9 +31375,738 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J106" r:id="rId1"/>
+    <hyperlink ref="J106" r:id="rId1" display="https://www.facebook.com/centrodeestudios.debachillerato"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="10" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>109</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>110</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>111</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>111</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>111</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>114</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>114</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>115</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>115</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>115</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>115</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>115</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>116</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>116</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>116</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>118</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>118</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>119</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>119</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>119</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>119</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>119</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>120</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>121</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>121</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>121</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Escuelas.xlsx
+++ b/Escuelas.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\nu-uk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13884" windowHeight="4021" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Carreras1" sheetId="4" r:id="rId4"/>
+    <sheet name="Relacion_escuela1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$O$139</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$N$1:$N$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$B$1:$B$243</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="507">
   <si>
     <t>KILOMETRO 1.5 A VALLADOLID</t>
   </si>
@@ -1438,6 +1445,114 @@
   </si>
   <si>
     <t>https://www.facebook.com/centrodeestudios.debachillerato</t>
+  </si>
+  <si>
+    <t>http://camchetumal.edu.mx/</t>
+  </si>
+  <si>
+    <t>@CAMdeChetumal</t>
+  </si>
+  <si>
+    <t>/CAMdeChetumal</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Carrera</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN TELESECUNDARIA</t>
+  </si>
+  <si>
+    <t>IdEscuela</t>
+  </si>
+  <si>
+    <t>IdCarrera</t>
+  </si>
+  <si>
+    <t>http://www.crenpreescolarqr.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/Centro-Regional-de-Educaci%C3%B3n-Normal-de-Felipe-Carrillo-Puerto/297950183585955</t>
+  </si>
+  <si>
+    <t>@crenpreescolar</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN FORMACIÓN CÍVICA Y ÉTICA</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN EDUCACIÓN PREESCOLAR</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN EDUCACIÓN PREESCOLAR INTERCULTURAL BILINGÜE</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/Centro-Regional-de-Educaci%C3%B3n-Normal-Lic-Javier-Rojo-G%C3%B3mez/943056435709148?sk=timeline</t>
+  </si>
+  <si>
+    <t>LICENCIATURA PEDAGOGICA</t>
+  </si>
+  <si>
+    <t>http://www.cecuc.ipn.mx/v3/index.php</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/CEC-Unidad-Canc%C3%BAn-IPN/259164244106816</t>
+  </si>
+  <si>
+    <t>@ipn_cancun</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN ADMINISTRACIÓN Y DESARROLLO EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN COMERCIO INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>CONTADOR PÚBLICO</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN NEGOCIOS INTERNACIONALES</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN RELACIONES COMERCIALES</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN TURISMO</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA</t>
+  </si>
+  <si>
+    <t>BIOLOGÍA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA ELÉCTRICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA CIVIL</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN ADMINISTRACIÓN</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN GESTIÓN EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN SISTEMAS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>INGENIERÍA TECNOLOGÍAS DE LA INFORMACIÓN Y COMUNICACIONES</t>
   </si>
 </sst>
 </file>
@@ -1467,12 +1582,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1488,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1521,6 +1642,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1794,7 +1916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1808,22 +1930,22 @@
       <selection activeCell="E1" sqref="E1:O243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="11" style="9"/>
-    <col min="13" max="13" width="11.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="32" width="11" style="9"/>
     <col min="33" max="44" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>1</v>
       </c>
@@ -1870,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -1917,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -1964,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -2011,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>5</v>
       </c>
@@ -2058,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -2105,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -2152,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>8</v>
       </c>
@@ -2199,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>9</v>
       </c>
@@ -2246,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -2293,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2340,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -2387,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -2434,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -2481,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -2528,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -2575,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -2622,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2669,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -2716,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -2763,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>21</v>
       </c>
@@ -2810,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>22</v>
       </c>
@@ -2857,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -2904,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -2951,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -2998,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -3045,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -3092,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>28</v>
       </c>
@@ -3139,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>29</v>
       </c>
@@ -3186,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -3233,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>31</v>
       </c>
@@ -3280,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>32</v>
       </c>
@@ -3327,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>33</v>
       </c>
@@ -3374,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>34</v>
       </c>
@@ -3421,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>35</v>
       </c>
@@ -3468,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>36</v>
       </c>
@@ -3515,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>37</v>
       </c>
@@ -3562,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>38</v>
       </c>
@@ -3609,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>39</v>
       </c>
@@ -3656,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>40</v>
       </c>
@@ -3703,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>41</v>
       </c>
@@ -3750,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>42</v>
       </c>
@@ -3797,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43</v>
       </c>
@@ -3844,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>44</v>
       </c>
@@ -3891,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45</v>
       </c>
@@ -3938,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>46</v>
       </c>
@@ -3985,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>47</v>
       </c>
@@ -4032,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>48</v>
       </c>
@@ -4079,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>49</v>
       </c>
@@ -4126,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>50</v>
       </c>
@@ -4173,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>51</v>
       </c>
@@ -4220,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>52</v>
       </c>
@@ -4267,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>53</v>
       </c>
@@ -4314,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>54</v>
       </c>
@@ -4361,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>55</v>
       </c>
@@ -4408,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>56</v>
       </c>
@@ -4455,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>57</v>
       </c>
@@ -4502,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>58</v>
       </c>
@@ -4549,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>59</v>
       </c>
@@ -4596,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>60</v>
       </c>
@@ -4643,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>61</v>
       </c>
@@ -4690,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>62</v>
       </c>
@@ -4737,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>63</v>
       </c>
@@ -4784,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>64</v>
       </c>
@@ -4831,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>65</v>
       </c>
@@ -4878,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>66</v>
       </c>
@@ -4925,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>67</v>
       </c>
@@ -4972,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>68</v>
       </c>
@@ -5019,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>69</v>
       </c>
@@ -5066,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>70</v>
       </c>
@@ -5113,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>71</v>
       </c>
@@ -5160,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>72</v>
       </c>
@@ -5207,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>73</v>
       </c>
@@ -5254,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>74</v>
       </c>
@@ -5301,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>75</v>
       </c>
@@ -5348,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>76</v>
       </c>
@@ -5395,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>77</v>
       </c>
@@ -5442,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>78</v>
       </c>
@@ -5489,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>79</v>
       </c>
@@ -5536,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>80</v>
       </c>
@@ -5583,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>81</v>
       </c>
@@ -5630,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>82</v>
       </c>
@@ -5677,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>83</v>
       </c>
@@ -5724,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>84</v>
       </c>
@@ -5771,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>85</v>
       </c>
@@ -5818,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>86</v>
       </c>
@@ -5865,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>87</v>
       </c>
@@ -5912,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>88</v>
       </c>
@@ -5959,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>89</v>
       </c>
@@ -6006,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>90</v>
       </c>
@@ -6053,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>91</v>
       </c>
@@ -6100,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>92</v>
       </c>
@@ -6147,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>93</v>
       </c>
@@ -6194,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>94</v>
       </c>
@@ -6241,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>95</v>
       </c>
@@ -6288,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>96</v>
       </c>
@@ -6335,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>97</v>
       </c>
@@ -6382,7 +6504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>98</v>
       </c>
@@ -6429,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>99</v>
       </c>
@@ -6476,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>100</v>
       </c>
@@ -6523,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>101</v>
       </c>
@@ -6570,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>102</v>
       </c>
@@ -6617,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>103</v>
       </c>
@@ -6664,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>104</v>
       </c>
@@ -6711,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>105</v>
       </c>
@@ -6758,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>106</v>
       </c>
@@ -6805,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>107</v>
       </c>
@@ -6852,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>108</v>
       </c>
@@ -6899,7 +7021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>109</v>
       </c>
@@ -6946,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>110</v>
       </c>
@@ -6993,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>111</v>
       </c>
@@ -7040,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>112</v>
       </c>
@@ -7087,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>113</v>
       </c>
@@ -7134,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>114</v>
       </c>
@@ -7181,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>115</v>
       </c>
@@ -7228,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>116</v>
       </c>
@@ -7275,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>117</v>
       </c>
@@ -7322,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>118</v>
       </c>
@@ -7369,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>119</v>
       </c>
@@ -7416,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>120</v>
       </c>
@@ -7463,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>121</v>
       </c>
@@ -7510,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>122</v>
       </c>
@@ -7557,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>123</v>
       </c>
@@ -7604,7 +7726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>124</v>
       </c>
@@ -7651,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>125</v>
       </c>
@@ -7698,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>126</v>
       </c>
@@ -7745,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>127</v>
       </c>
@@ -7792,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>128</v>
       </c>
@@ -7839,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>129</v>
       </c>
@@ -7886,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>130</v>
       </c>
@@ -7933,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>131</v>
       </c>
@@ -7980,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>132</v>
       </c>
@@ -8027,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>133</v>
       </c>
@@ -8074,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>134</v>
       </c>
@@ -8121,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>135</v>
       </c>
@@ -8168,7 +8290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>136</v>
       </c>
@@ -8215,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>137</v>
       </c>
@@ -8262,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>138</v>
       </c>
@@ -8309,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>139</v>
       </c>
@@ -8356,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>140</v>
       </c>
@@ -8403,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>141</v>
       </c>
@@ -8450,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>142</v>
       </c>
@@ -8497,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>143</v>
       </c>
@@ -8544,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>144</v>
       </c>
@@ -8591,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>145</v>
       </c>
@@ -8638,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>146</v>
       </c>
@@ -8685,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>147</v>
       </c>
@@ -8732,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>148</v>
       </c>
@@ -8779,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>149</v>
       </c>
@@ -8826,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>150</v>
       </c>
@@ -8873,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>151</v>
       </c>
@@ -8920,7 +9042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>152</v>
       </c>
@@ -8967,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>153</v>
       </c>
@@ -9014,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>154</v>
       </c>
@@ -9061,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>155</v>
       </c>
@@ -9108,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>156</v>
       </c>
@@ -9155,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>157</v>
       </c>
@@ -9202,7 +9324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>158</v>
       </c>
@@ -9249,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>159</v>
       </c>
@@ -9296,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>160</v>
       </c>
@@ -9343,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>161</v>
       </c>
@@ -9390,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>162</v>
       </c>
@@ -9437,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>163</v>
       </c>
@@ -9484,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>164</v>
       </c>
@@ -9531,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>165</v>
       </c>
@@ -9578,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>166</v>
       </c>
@@ -9625,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>167</v>
       </c>
@@ -9672,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>168</v>
       </c>
@@ -9719,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>169</v>
       </c>
@@ -9766,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>170</v>
       </c>
@@ -9813,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>171</v>
       </c>
@@ -9860,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>172</v>
       </c>
@@ -9907,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>173</v>
       </c>
@@ -9954,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>174</v>
       </c>
@@ -10001,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>175</v>
       </c>
@@ -10048,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>176</v>
       </c>
@@ -10095,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>177</v>
       </c>
@@ -10142,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>178</v>
       </c>
@@ -10189,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>179</v>
       </c>
@@ -10236,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>180</v>
       </c>
@@ -10283,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>181</v>
       </c>
@@ -10330,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>182</v>
       </c>
@@ -10377,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>183</v>
       </c>
@@ -10424,7 +10546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>184</v>
       </c>
@@ -10471,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>185</v>
       </c>
@@ -10518,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>186</v>
       </c>
@@ -10565,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>187</v>
       </c>
@@ -10612,7 +10734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>188</v>
       </c>
@@ -10659,7 +10781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>189</v>
       </c>
@@ -10706,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>190</v>
       </c>
@@ -10753,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>191</v>
       </c>
@@ -10800,7 +10922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>192</v>
       </c>
@@ -10847,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>193</v>
       </c>
@@ -10894,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>194</v>
       </c>
@@ -10941,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>195</v>
       </c>
@@ -10988,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>196</v>
       </c>
@@ -11035,7 +11157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>197</v>
       </c>
@@ -11082,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>198</v>
       </c>
@@ -11129,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>199</v>
       </c>
@@ -11176,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>200</v>
       </c>
@@ -11223,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>201</v>
       </c>
@@ -11270,7 +11392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>202</v>
       </c>
@@ -11317,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>203</v>
       </c>
@@ -11364,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>204</v>
       </c>
@@ -11411,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>205</v>
       </c>
@@ -11458,7 +11580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>206</v>
       </c>
@@ -11505,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>207</v>
       </c>
@@ -11552,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>208</v>
       </c>
@@ -11599,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>209</v>
       </c>
@@ -11646,7 +11768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>210</v>
       </c>
@@ -11693,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>211</v>
       </c>
@@ -11740,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>212</v>
       </c>
@@ -11787,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>213</v>
       </c>
@@ -11834,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>214</v>
       </c>
@@ -11881,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>215</v>
       </c>
@@ -11928,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>216</v>
       </c>
@@ -11975,7 +12097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>217</v>
       </c>
@@ -12022,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>218</v>
       </c>
@@ -12069,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>219</v>
       </c>
@@ -12116,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>220</v>
       </c>
@@ -12163,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>221</v>
       </c>
@@ -12210,7 +12332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>222</v>
       </c>
@@ -12257,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>223</v>
       </c>
@@ -12304,7 +12426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>224</v>
       </c>
@@ -12351,7 +12473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>225</v>
       </c>
@@ -12398,7 +12520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>226</v>
       </c>
@@ -12445,7 +12567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>227</v>
       </c>
@@ -12492,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>228</v>
       </c>
@@ -12539,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>229</v>
       </c>
@@ -12586,7 +12708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>230</v>
       </c>
@@ -12633,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>231</v>
       </c>
@@ -12680,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>232</v>
       </c>
@@ -12727,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>233</v>
       </c>
@@ -12774,7 +12896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>234</v>
       </c>
@@ -12821,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>235</v>
       </c>
@@ -12868,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>236</v>
       </c>
@@ -12915,7 +13037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>237</v>
       </c>
@@ -12962,7 +13084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>238</v>
       </c>
@@ -13009,7 +13131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>239</v>
       </c>
@@ -13056,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>240</v>
       </c>
@@ -13103,7 +13225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>241</v>
       </c>
@@ -13150,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>242</v>
       </c>
@@ -13197,7 +13319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>243</v>
       </c>
@@ -13244,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -13267,15 +13389,15 @@
       <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="2" customWidth="1"/>
     <col min="5" max="14" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>105</v>
       </c>
@@ -13322,7 +13444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>106</v>
       </c>
@@ -13369,7 +13491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>108</v>
       </c>
@@ -13416,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>109</v>
       </c>
@@ -13463,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>110</v>
       </c>
@@ -13510,7 +13632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>111</v>
       </c>
@@ -13557,7 +13679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>113</v>
       </c>
@@ -13604,7 +13726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>116</v>
       </c>
@@ -13651,7 +13773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>118</v>
       </c>
@@ -13698,7 +13820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>119</v>
       </c>
@@ -13745,7 +13867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>121</v>
       </c>
@@ -13792,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>123</v>
       </c>
@@ -13839,7 +13961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>125</v>
       </c>
@@ -13886,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>127</v>
       </c>
@@ -13933,7 +14055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>129</v>
       </c>
@@ -13978,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>131</v>
       </c>
@@ -14025,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>133</v>
       </c>
@@ -14072,7 +14194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>135</v>
       </c>
@@ -14119,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>136</v>
       </c>
@@ -14166,7 +14288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>137</v>
       </c>
@@ -14213,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>140</v>
       </c>
@@ -14260,7 +14382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>141</v>
       </c>
@@ -14307,7 +14429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>143</v>
       </c>
@@ -14399,7 +14521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>148</v>
       </c>
@@ -14446,7 +14568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>150</v>
       </c>
@@ -14493,7 +14615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>152</v>
       </c>
@@ -14540,7 +14662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>154</v>
       </c>
@@ -14681,7 +14803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>159</v>
       </c>
@@ -14775,7 +14897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>163</v>
       </c>
@@ -14822,7 +14944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>165</v>
       </c>
@@ -14869,7 +14991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>167</v>
       </c>
@@ -15006,7 +15128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>172</v>
       </c>
@@ -15053,7 +15175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>174</v>
       </c>
@@ -15098,7 +15220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>176</v>
       </c>
@@ -15143,7 +15265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>177</v>
       </c>
@@ -15188,7 +15310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>179</v>
       </c>
@@ -15233,7 +15355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>181</v>
       </c>
@@ -15368,7 +15490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>186</v>
       </c>
@@ -15413,7 +15535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>188</v>
       </c>
@@ -15597,7 +15719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>192</v>
       </c>
@@ -15689,7 +15811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>194</v>
       </c>
@@ -15781,7 +15903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>196</v>
       </c>
@@ -16098,7 +16220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>205</v>
       </c>
@@ -16233,7 +16355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>212</v>
       </c>
@@ -16278,7 +16400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>213</v>
       </c>
@@ -16323,7 +16445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>214</v>
       </c>
@@ -16368,7 +16490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>215</v>
       </c>
@@ -16415,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>217</v>
       </c>
@@ -16462,7 +16584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>219</v>
       </c>
@@ -16509,7 +16631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>221</v>
       </c>
@@ -16556,7 +16678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>222</v>
       </c>
@@ -16603,7 +16725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>224</v>
       </c>
@@ -16648,7 +16770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>227</v>
       </c>
@@ -16695,7 +16817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>229</v>
       </c>
@@ -16740,7 +16862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>233</v>
       </c>
@@ -16787,7 +16909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>235</v>
       </c>
@@ -16834,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>237</v>
       </c>
@@ -16881,7 +17003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>238</v>
       </c>
@@ -16928,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>240</v>
       </c>
@@ -16975,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>241</v>
       </c>
@@ -17022,7 +17144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>243</v>
       </c>
@@ -17069,7 +17191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>244</v>
       </c>
@@ -17116,7 +17238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>245</v>
       </c>
@@ -17163,7 +17285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>246</v>
       </c>
@@ -17210,7 +17332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>247</v>
       </c>
@@ -17257,7 +17379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>248</v>
       </c>
@@ -17304,7 +17426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>249</v>
       </c>
@@ -17351,7 +17473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>250</v>
       </c>
@@ -17398,7 +17520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>251</v>
       </c>
@@ -17445,7 +17567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>252</v>
       </c>
@@ -17492,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>253</v>
       </c>
@@ -17537,7 +17659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>254</v>
       </c>
@@ -17582,7 +17704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>255</v>
       </c>
@@ -17627,7 +17749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>256</v>
       </c>
@@ -17674,7 +17796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>257</v>
       </c>
@@ -17721,7 +17843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>258</v>
       </c>
@@ -17768,7 +17890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>259</v>
       </c>
@@ -17815,7 +17937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>260</v>
       </c>
@@ -17862,7 +17984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>261</v>
       </c>
@@ -17909,7 +18031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>262</v>
       </c>
@@ -17956,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>263</v>
       </c>
@@ -18003,7 +18125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>264</v>
       </c>
@@ -18050,7 +18172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>265</v>
       </c>
@@ -18097,7 +18219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>266</v>
       </c>
@@ -18144,7 +18266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>267</v>
       </c>
@@ -18191,7 +18313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>268</v>
       </c>
@@ -18238,7 +18360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>269</v>
       </c>
@@ -18285,7 +18407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>270</v>
       </c>
@@ -18332,7 +18454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>271</v>
       </c>
@@ -18379,7 +18501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>272</v>
       </c>
@@ -18426,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>273</v>
       </c>
@@ -18473,7 +18595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>274</v>
       </c>
@@ -18520,7 +18642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>275</v>
       </c>
@@ -18567,7 +18689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>277</v>
       </c>
@@ -18614,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>278</v>
       </c>
@@ -18661,7 +18783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>279</v>
       </c>
@@ -18708,7 +18830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>280</v>
       </c>
@@ -18755,7 +18877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>281</v>
       </c>
@@ -18802,7 +18924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>282</v>
       </c>
@@ -18849,7 +18971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>283</v>
       </c>
@@ -18896,7 +19018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>284</v>
       </c>
@@ -18943,7 +19065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>285</v>
       </c>
@@ -18990,7 +19112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>286</v>
       </c>
@@ -19037,7 +19159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>287</v>
       </c>
@@ -19084,7 +19206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>288</v>
       </c>
@@ -19131,7 +19253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>289</v>
       </c>
@@ -19178,7 +19300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>290</v>
       </c>
@@ -19225,7 +19347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>291</v>
       </c>
@@ -19272,7 +19394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>292</v>
       </c>
@@ -19319,7 +19441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>293</v>
       </c>
@@ -19366,7 +19488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>294</v>
       </c>
@@ -19413,7 +19535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>295</v>
       </c>
@@ -19460,7 +19582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>296</v>
       </c>
@@ -19507,7 +19629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>298</v>
       </c>
@@ -19554,7 +19676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>299</v>
       </c>
@@ -19601,7 +19723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>300</v>
       </c>
@@ -19648,7 +19770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>301</v>
       </c>
@@ -19695,7 +19817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>302</v>
       </c>
@@ -19752,19 +19874,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -19811,7 +19934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19834,16 +19957,16 @@
         <v>8334832</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="I2" t="s">
         <v>52</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>156</v>
+        <v>472</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>93</v>
@@ -19858,7 +19981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="64.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19881,16 +20004,16 @@
         <v>8340863</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>156</v>
+        <v>480</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>156</v>
+        <v>481</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>156</v>
+        <v>482</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>93</v>
@@ -19927,14 +20050,14 @@
       <c r="G4" s="8">
         <v>8342185</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>156</v>
+      <c r="H4" t="s">
+        <v>487</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>156</v>
+      <c r="J4" t="s">
+        <v>487</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>156</v>
@@ -19953,7 +20076,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5">
@@ -19999,7 +20122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20021,20 +20144,20 @@
       <c r="G6" s="8">
         <v>7296000</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>156</v>
+      <c r="H6" t="s">
+        <v>489</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>156</v>
+        <v>490</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>156</v>
+        <v>491</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M6" s="9">
         <v>3</v>
@@ -20046,7 +20169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20093,7 +20216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20140,7 +20263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20187,7 +20310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20234,7 +20357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20281,7 +20404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20328,7 +20451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20375,7 +20498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20422,7 +20545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20751,7 +20874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -20892,7 +21015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20986,7 +21109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -21033,7 +21156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -21080,7 +21203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -21127,7 +21250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -21174,7 +21297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -21221,7 +21344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -21268,7 +21391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -21315,7 +21438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -21362,7 +21485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -21409,7 +21532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -21456,7 +21579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -21503,7 +21626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -21550,7 +21673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -21597,7 +21720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -21738,7 +21861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -21785,7 +21908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -21832,7 +21955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -21879,7 +22002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -21926,7 +22049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -21973,7 +22096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -22020,7 +22143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -22114,7 +22237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -22161,7 +22284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -22208,7 +22331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -22255,7 +22378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -22302,7 +22425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -22349,7 +22472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -22396,7 +22519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -22443,7 +22566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -22490,7 +22613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -22537,7 +22660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -22584,7 +22707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -22631,7 +22754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -22678,7 +22801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -22725,7 +22848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -22772,7 +22895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -22819,7 +22942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -22866,7 +22989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -22913,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -22960,7 +23083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -23007,7 +23130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -23054,7 +23177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -23101,7 +23224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -23195,7 +23318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -23242,7 +23365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -23289,7 +23412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -23336,7 +23459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -23383,7 +23506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -23430,7 +23553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -23477,7 +23600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -23524,7 +23647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -23571,7 +23694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -23618,7 +23741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -23665,7 +23788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -23712,7 +23835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -23759,7 +23882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -23806,7 +23929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -23853,7 +23976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -23900,7 +24023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -23947,7 +24070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -23994,7 +24117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -24041,7 +24164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -24088,7 +24211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -24135,7 +24258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -24652,7 +24775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -24699,7 +24822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -24746,7 +24869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -24793,7 +24916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -24840,7 +24963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -24887,7 +25010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -24934,7 +25057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -24981,7 +25104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -25028,7 +25151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -25075,7 +25198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -25122,7 +25245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -25169,7 +25292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -25216,7 +25339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -25263,7 +25386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -25310,7 +25433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -25357,7 +25480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -25404,7 +25527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -25451,7 +25574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -25498,7 +25621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -25545,7 +25668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -25592,7 +25715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -25639,7 +25762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -25686,7 +25809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -25733,7 +25856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -25780,7 +25903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -25827,7 +25950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -25874,7 +25997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -25921,7 +26044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -25968,7 +26091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -26015,7 +26138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -26062,7 +26185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -26109,7 +26232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -26156,7 +26279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -26203,7 +26326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -26250,7 +26373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -26297,7 +26420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -26344,7 +26467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -26391,7 +26514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -26438,7 +26561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -26485,7 +26608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -26532,7 +26655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -26579,7 +26702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -26626,7 +26749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -26673,7 +26796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -26720,7 +26843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -26767,7 +26890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -26814,7 +26937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -26861,7 +26984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -26908,7 +27031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -26955,7 +27078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -27002,7 +27125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -27049,7 +27172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -27096,7 +27219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -27143,7 +27266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -27190,7 +27313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -27237,7 +27360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -27284,7 +27407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -27331,7 +27454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -27378,7 +27501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -27425,7 +27548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -27472,7 +27595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -27519,7 +27642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -27566,7 +27689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -27613,7 +27736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -27660,7 +27783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -27707,7 +27830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -27754,7 +27877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -27801,7 +27924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -27848,7 +27971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -27895,7 +28018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -27942,7 +28065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -27989,7 +28112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="57.1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -28036,7 +28159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -28083,7 +28206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -28130,7 +28253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -28177,7 +28300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -28224,7 +28347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -28271,7 +28394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -28318,7 +28441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -28365,7 +28488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -28412,7 +28535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -28459,7 +28582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -28506,7 +28629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -28553,7 +28676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -28600,7 +28723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -28647,7 +28770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -28694,7 +28817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -28741,7 +28864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -28788,7 +28911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -28835,7 +28958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -28882,7 +29005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -28929,7 +29052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -28976,7 +29099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -29023,7 +29146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -29070,7 +29193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -29117,7 +29240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -29164,7 +29287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -29211,7 +29334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -29258,7 +29381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -29305,7 +29428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -29352,7 +29475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -29399,7 +29522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -29446,7 +29569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -29493,7 +29616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -29540,7 +29663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -29587,7 +29710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -29634,7 +29757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -29681,7 +29804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -29728,7 +29851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -29775,7 +29898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="57.1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -29822,7 +29945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -29869,7 +29992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -29916,7 +30039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -29963,7 +30086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -30010,7 +30133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -30057,7 +30180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -30104,7 +30227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -30151,7 +30274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -30198,7 +30321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -30245,7 +30368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -30292,7 +30415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -30339,7 +30462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -30386,7 +30509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -30433,7 +30556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -30480,7 +30603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -30527,7 +30650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -30574,7 +30697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -30621,7 +30744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -30668,7 +30791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -30715,7 +30838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -30762,7 +30885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -30809,7 +30932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -30856,7 +30979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="28.55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -30903,7 +31026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -30950,7 +31073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="42.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -30997,7 +31120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -31044,7 +31167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -31091,7 +31214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -31138,7 +31261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -31186,10 +31309,490 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B243">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="J106" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="10" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>